--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="142">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,12 +43,12 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>useless</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>useless</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
@@ -82,334 +82,334 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>awesome</t>
   </si>
   <si>
     <t>fantastic</t>
   </si>
   <si>
+    <t>favorite</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>delicious</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>wedding</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>son</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>helps</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>everyday</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>wedding</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>garlic</t>
-  </si>
-  <si>
-    <t>apples</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
     <t>pie</t>
   </si>
   <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>mas</t>
+  </si>
+  <si>
     <t>rice</t>
   </si>
   <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>apple</t>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
     <t>gift</t>
   </si>
   <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>dough</t>
   </si>
   <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>cookies</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
     <t>years</t>
   </si>
   <si>
-    <t>popcorn</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>friend</t>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>kitchen</t>
   </si>
   <si>
     <t>home</t>
   </si>
   <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>easy</t>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>book</t>
   </si>
   <si>
     <t>always</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>fan</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>simple</t>
+    <t>good</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>ice</t>
   </si>
   <si>
-    <t>keeps</t>
+    <t>well</t>
   </si>
   <si>
     <t>making</t>
   </si>
   <si>
-    <t>dish</t>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>peel</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>wish</t>
   </si>
   <si>
     <t>gr</t>
   </si>
   <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>peel</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>maker</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>anyone</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>makes</t>
   </si>
   <si>
     <t>brand</t>
   </si>
   <si>
-    <t>wish</t>
+    <t>far</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>last</t>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>clean</t>
+    <t>make</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>bought</t>
   </si>
   <si>
     <t>big</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
     <t>hot</t>
   </si>
   <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>long</t>
   </si>
   <si>
-    <t>job</t>
+    <t>one</t>
   </si>
   <si>
     <t>like</t>
@@ -418,31 +418,22 @@
     <t>really</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>made</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>used</t>
   </si>
   <si>
     <t>product</t>
@@ -806,7 +797,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q128"/>
+  <dimension ref="A1:Q125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -817,7 +808,7 @@
         <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -875,13 +866,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.896551724137931</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -893,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
@@ -925,13 +916,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7037037037037037</v>
+        <v>0.7</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -943,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
@@ -975,13 +966,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.65</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -993,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K5">
-        <v>0.8947368421052632</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1017,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1025,13 +1016,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3953488372093023</v>
+        <v>0.3643410852713178</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1043,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K6">
-        <v>0.890625</v>
+        <v>0.8828125</v>
       </c>
       <c r="L6">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M6">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1067,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1099,13 +1090,13 @@
         <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8840579710144928</v>
+        <v>0.8560371517027864</v>
       </c>
       <c r="L7">
-        <v>61</v>
+        <v>553</v>
       </c>
       <c r="M7">
-        <v>61</v>
+        <v>553</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1117,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1149,13 +1140,13 @@
         <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8498452012383901</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L8">
-        <v>549</v>
+        <v>59</v>
       </c>
       <c r="M8">
-        <v>549</v>
+        <v>59</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1167,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>97</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1175,13 +1166,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2929292929292929</v>
+        <v>0.3131313131313131</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1193,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8478260869565217</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1217,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1225,13 +1216,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2435897435897436</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1243,19 +1234,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8461538461538461</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1267,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1275,13 +1266,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1243243243243243</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1293,19 +1284,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K11">
-        <v>0.8181818181818182</v>
+        <v>0.8</v>
       </c>
       <c r="L11">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="M11">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1317,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1325,13 +1316,13 @@
         <v>27</v>
       </c>
       <c r="K12">
-        <v>0.7894736842105263</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="L12">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M12">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1343,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1351,13 +1342,13 @@
         <v>28</v>
       </c>
       <c r="K13">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L13">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="M13">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1369,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1377,13 +1368,13 @@
         <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7316017316017316</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L14">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="M14">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1395,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1403,13 +1394,13 @@
         <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7142857142857143</v>
+        <v>0.7016949152542373</v>
       </c>
       <c r="L15">
-        <v>55</v>
+        <v>207</v>
       </c>
       <c r="M15">
-        <v>55</v>
+        <v>207</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1421,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1429,13 +1420,13 @@
         <v>31</v>
       </c>
       <c r="K16">
-        <v>0.7111111111111111</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L16">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M16">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1447,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1455,13 +1446,13 @@
         <v>32</v>
       </c>
       <c r="K17">
-        <v>0.6666666666666666</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L17">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M17">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1473,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1481,13 +1472,13 @@
         <v>33</v>
       </c>
       <c r="K18">
-        <v>0.6610169491525424</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L18">
-        <v>195</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>195</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1499,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1507,13 +1498,13 @@
         <v>34</v>
       </c>
       <c r="K19">
-        <v>0.6521739130434783</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L19">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1525,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1533,13 +1524,13 @@
         <v>35</v>
       </c>
       <c r="K20">
-        <v>0.647887323943662</v>
+        <v>0.6316211878009631</v>
       </c>
       <c r="L20">
-        <v>46</v>
+        <v>787</v>
       </c>
       <c r="M20">
-        <v>46</v>
+        <v>787</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1551,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>25</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1559,13 +1550,13 @@
         <v>36</v>
       </c>
       <c r="K21">
-        <v>0.6356340288924559</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L21">
-        <v>792</v>
+        <v>17</v>
       </c>
       <c r="M21">
-        <v>792</v>
+        <v>17</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1577,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>454</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1585,13 +1576,13 @@
         <v>37</v>
       </c>
       <c r="K22">
-        <v>0.6206896551724138</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L22">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M22">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1603,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1611,13 +1602,13 @@
         <v>38</v>
       </c>
       <c r="K23">
-        <v>0.6153846153846154</v>
+        <v>0.6</v>
       </c>
       <c r="L23">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1629,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1637,13 +1628,13 @@
         <v>39</v>
       </c>
       <c r="K24">
-        <v>0.6027397260273972</v>
+        <v>0.59375</v>
       </c>
       <c r="L24">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1655,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1663,13 +1654,13 @@
         <v>40</v>
       </c>
       <c r="K25">
-        <v>0.5925925925925926</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L25">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1681,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1689,13 +1680,13 @@
         <v>41</v>
       </c>
       <c r="K26">
-        <v>0.5789473684210527</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L26">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="M26">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1707,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1715,13 +1706,13 @@
         <v>42</v>
       </c>
       <c r="K27">
-        <v>0.578125</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L27">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="M27">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1733,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>27</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1741,13 +1732,13 @@
         <v>43</v>
       </c>
       <c r="K28">
-        <v>0.5769230769230769</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1759,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1767,13 +1758,13 @@
         <v>44</v>
       </c>
       <c r="K29">
-        <v>0.5769230769230769</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1785,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1793,13 +1784,13 @@
         <v>45</v>
       </c>
       <c r="K30">
-        <v>0.5714285714285714</v>
+        <v>0.5510204081632653</v>
       </c>
       <c r="L30">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1811,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1819,13 +1810,13 @@
         <v>46</v>
       </c>
       <c r="K31">
-        <v>0.5673076923076923</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="L31">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M31">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1837,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1845,13 +1836,13 @@
         <v>47</v>
       </c>
       <c r="K32">
-        <v>0.5625</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1863,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1871,13 +1862,13 @@
         <v>48</v>
       </c>
       <c r="K33">
-        <v>0.5588235294117647</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L33">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1889,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1897,13 +1888,13 @@
         <v>49</v>
       </c>
       <c r="K34">
-        <v>0.5555555555555556</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="L34">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="M34">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1915,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1923,13 +1914,13 @@
         <v>50</v>
       </c>
       <c r="K35">
-        <v>0.5538461538461539</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L35">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M35">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1941,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1949,13 +1940,13 @@
         <v>51</v>
       </c>
       <c r="K36">
-        <v>0.5490196078431373</v>
+        <v>0.5269461077844312</v>
       </c>
       <c r="L36">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="M36">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1967,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>23</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1975,13 +1966,13 @@
         <v>52</v>
       </c>
       <c r="K37">
-        <v>0.5470085470085471</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="L37">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="M37">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1993,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2001,13 +1992,13 @@
         <v>53</v>
       </c>
       <c r="K38">
-        <v>0.5428571428571428</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L38">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="M38">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2019,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2027,13 +2018,13 @@
         <v>54</v>
       </c>
       <c r="K39">
-        <v>0.5421686746987951</v>
+        <v>0.49</v>
       </c>
       <c r="L39">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M39">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2045,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2053,13 +2044,13 @@
         <v>55</v>
       </c>
       <c r="K40">
-        <v>0.5384615384615384</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L40">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="M40">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2071,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2079,13 +2070,13 @@
         <v>56</v>
       </c>
       <c r="K41">
-        <v>0.5209580838323353</v>
+        <v>0.4868421052631579</v>
       </c>
       <c r="L41">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="M41">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2097,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>80</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2105,13 +2096,13 @@
         <v>57</v>
       </c>
       <c r="K42">
-        <v>0.5138888888888888</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="L42">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="M42">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2123,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2131,13 +2122,13 @@
         <v>58</v>
       </c>
       <c r="K43">
-        <v>0.5102040816326531</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="L43">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M43">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2149,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2157,13 +2148,13 @@
         <v>59</v>
       </c>
       <c r="K44">
-        <v>0.4857142857142857</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L44">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M44">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2183,13 +2174,13 @@
         <v>60</v>
       </c>
       <c r="K45">
-        <v>0.4571428571428571</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L45">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M45">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2201,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2209,13 +2200,13 @@
         <v>61</v>
       </c>
       <c r="K46">
-        <v>0.4567901234567901</v>
+        <v>0.45</v>
       </c>
       <c r="L46">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="M46">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2227,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2235,13 +2226,13 @@
         <v>62</v>
       </c>
       <c r="K47">
-        <v>0.45</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="L47">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M47">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2253,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2261,13 +2252,13 @@
         <v>63</v>
       </c>
       <c r="K48">
-        <v>0.45</v>
+        <v>0.4360902255639098</v>
       </c>
       <c r="L48">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M48">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2279,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2287,25 +2278,25 @@
         <v>64</v>
       </c>
       <c r="K49">
-        <v>0.4489795918367347</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L49">
+        <v>16</v>
+      </c>
+      <c r="M49">
+        <v>16</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
         <v>22</v>
-      </c>
-      <c r="M49">
-        <v>22</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>27</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2313,13 +2304,13 @@
         <v>65</v>
       </c>
       <c r="K50">
-        <v>0.4473684210526316</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L50">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M50">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2331,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2339,13 +2330,13 @@
         <v>66</v>
       </c>
       <c r="K51">
-        <v>0.4444444444444444</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L51">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M51">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2357,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2365,13 +2356,13 @@
         <v>67</v>
       </c>
       <c r="K52">
-        <v>0.4358974358974359</v>
+        <v>0.4036144578313253</v>
       </c>
       <c r="L52">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="M52">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2383,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2391,13 +2382,13 @@
         <v>68</v>
       </c>
       <c r="K53">
-        <v>0.4060150375939849</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="L53">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="M53">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2409,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>79</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2417,13 +2408,13 @@
         <v>69</v>
       </c>
       <c r="K54">
-        <v>0.3975903614457831</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="L54">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="M54">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2435,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2469,13 +2460,13 @@
         <v>71</v>
       </c>
       <c r="K56">
-        <v>0.3735408560311284</v>
+        <v>0.3815789473684211</v>
       </c>
       <c r="L56">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="M56">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2487,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>161</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2495,13 +2486,13 @@
         <v>72</v>
       </c>
       <c r="K57">
-        <v>0.3684210526315789</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="L57">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M57">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2513,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2521,13 +2512,13 @@
         <v>73</v>
       </c>
       <c r="K58">
-        <v>0.3676470588235294</v>
+        <v>0.3693693693693694</v>
       </c>
       <c r="L58">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="M58">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2539,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>258</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2547,13 +2538,13 @@
         <v>74</v>
       </c>
       <c r="K59">
-        <v>0.3658536585365854</v>
+        <v>0.3676470588235294</v>
       </c>
       <c r="L59">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M59">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2565,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2573,13 +2564,13 @@
         <v>75</v>
       </c>
       <c r="K60">
-        <v>0.3636363636363636</v>
+        <v>0.3618677042801556</v>
       </c>
       <c r="L60">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="M60">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2591,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>35</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2599,13 +2590,13 @@
         <v>76</v>
       </c>
       <c r="K61">
-        <v>0.3571428571428572</v>
+        <v>0.3602941176470588</v>
       </c>
       <c r="L61">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="M61">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2617,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>36</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2625,7 +2616,7 @@
         <v>77</v>
       </c>
       <c r="K62">
-        <v>0.3548387096774194</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="L62">
         <v>22</v>
@@ -2643,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2651,13 +2642,13 @@
         <v>78</v>
       </c>
       <c r="K63">
-        <v>0.3513513513513514</v>
+        <v>0.3387096774193548</v>
       </c>
       <c r="L63">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="M63">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2669,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2677,13 +2668,13 @@
         <v>79</v>
       </c>
       <c r="K64">
-        <v>0.3478260869565217</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="L64">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="M64">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2695,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2703,13 +2694,13 @@
         <v>80</v>
       </c>
       <c r="K65">
-        <v>0.3442622950819672</v>
+        <v>0.3233082706766917</v>
       </c>
       <c r="L65">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="M65">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2721,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2729,13 +2720,13 @@
         <v>81</v>
       </c>
       <c r="K66">
-        <v>0.3382352941176471</v>
+        <v>0.3232876712328767</v>
       </c>
       <c r="L66">
-        <v>23</v>
+        <v>236</v>
       </c>
       <c r="M66">
-        <v>23</v>
+        <v>236</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2747,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>45</v>
+        <v>494</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2755,13 +2746,13 @@
         <v>82</v>
       </c>
       <c r="K67">
-        <v>0.3366336633663367</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="L67">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M67">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2773,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2781,13 +2772,13 @@
         <v>83</v>
       </c>
       <c r="K68">
-        <v>0.3333333333333333</v>
+        <v>0.316546762589928</v>
       </c>
       <c r="L68">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="M68">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2799,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>42</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2807,13 +2798,13 @@
         <v>84</v>
       </c>
       <c r="K69">
-        <v>0.3308270676691729</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L69">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="M69">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2825,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>89</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2833,13 +2824,13 @@
         <v>85</v>
       </c>
       <c r="K70">
-        <v>0.3166666666666667</v>
+        <v>0.2966507177033493</v>
       </c>
       <c r="L70">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="M70">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2851,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>41</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2859,13 +2850,13 @@
         <v>86</v>
       </c>
       <c r="K71">
-        <v>0.3136986301369863</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="L71">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="M71">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2877,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>501</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2885,13 +2876,13 @@
         <v>87</v>
       </c>
       <c r="K72">
-        <v>0.2976190476190476</v>
+        <v>0.287037037037037</v>
       </c>
       <c r="L72">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M72">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2903,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2911,13 +2902,13 @@
         <v>88</v>
       </c>
       <c r="K73">
-        <v>0.2870813397129187</v>
+        <v>0.2781456953642384</v>
       </c>
       <c r="L73">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="M73">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2929,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>149</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2937,13 +2928,13 @@
         <v>89</v>
       </c>
       <c r="K74">
-        <v>0.2777777777777778</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="L74">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M74">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2955,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2963,13 +2954,13 @@
         <v>90</v>
       </c>
       <c r="K75">
-        <v>0.2777777777777778</v>
+        <v>0.2461538461538462</v>
       </c>
       <c r="L75">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M75">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2981,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2989,13 +2980,13 @@
         <v>91</v>
       </c>
       <c r="K76">
-        <v>0.2733812949640288</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L76">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M76">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -3007,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>101</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -3015,13 +3006,13 @@
         <v>92</v>
       </c>
       <c r="K77">
-        <v>0.2638888888888889</v>
+        <v>0.2378902045209903</v>
       </c>
       <c r="L77">
-        <v>19</v>
+        <v>221</v>
       </c>
       <c r="M77">
-        <v>19</v>
+        <v>221</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3033,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>53</v>
+        <v>708</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -3041,13 +3032,13 @@
         <v>93</v>
       </c>
       <c r="K78">
-        <v>0.2522522522522522</v>
+        <v>0.2342342342342342</v>
       </c>
       <c r="L78">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M78">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3059,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -3067,13 +3058,13 @@
         <v>94</v>
       </c>
       <c r="K79">
-        <v>0.2391304347826087</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="L79">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M79">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3085,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -3093,13 +3084,13 @@
         <v>95</v>
       </c>
       <c r="K80">
-        <v>0.2317880794701987</v>
+        <v>0.2117647058823529</v>
       </c>
       <c r="L80">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M80">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3111,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>116</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -3119,25 +3110,25 @@
         <v>96</v>
       </c>
       <c r="K81">
-        <v>0.23</v>
+        <v>0.2053571428571428</v>
       </c>
       <c r="L81">
         <v>23</v>
       </c>
       <c r="M81">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3145,13 +3136,13 @@
         <v>97</v>
       </c>
       <c r="K82">
-        <v>0.2293577981651376</v>
+        <v>0.2026490066225166</v>
       </c>
       <c r="L82">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="M82">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3163,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>84</v>
+        <v>602</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3171,13 +3162,13 @@
         <v>98</v>
       </c>
       <c r="K83">
-        <v>0.2285714285714286</v>
+        <v>0.2018348623853211</v>
       </c>
       <c r="L83">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M83">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3189,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3197,13 +3188,13 @@
         <v>99</v>
       </c>
       <c r="K84">
-        <v>0.2236842105263158</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="L84">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M84">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3215,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>59</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3223,13 +3214,13 @@
         <v>100</v>
       </c>
       <c r="K85">
-        <v>0.2195909580193757</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="L85">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="M85">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3241,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>725</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3249,13 +3240,13 @@
         <v>101</v>
       </c>
       <c r="K86">
-        <v>0.2073170731707317</v>
+        <v>0.1943734015345268</v>
       </c>
       <c r="L86">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="M86">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3267,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>130</v>
+        <v>630</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3275,13 +3266,13 @@
         <v>102</v>
       </c>
       <c r="K87">
-        <v>0.2048192771084337</v>
+        <v>0.19</v>
       </c>
       <c r="L87">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M87">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3293,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3301,13 +3292,13 @@
         <v>103</v>
       </c>
       <c r="K88">
-        <v>0.2039735099337748</v>
+        <v>0.1849529780564263</v>
       </c>
       <c r="L88">
-        <v>154</v>
+        <v>59</v>
       </c>
       <c r="M88">
-        <v>154</v>
+        <v>59</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3319,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>601</v>
+        <v>260</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -3327,13 +3318,13 @@
         <v>104</v>
       </c>
       <c r="K89">
-        <v>0.2037617554858934</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="L89">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="M89">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3345,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>254</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -3353,13 +3344,13 @@
         <v>105</v>
       </c>
       <c r="K90">
-        <v>0.1794871794871795</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="L90">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M90">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3371,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>96</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="10:17">
@@ -3379,25 +3370,25 @@
         <v>106</v>
       </c>
       <c r="K91">
-        <v>0.1785714285714286</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="L91">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M91">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N91">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O91">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="10:17">
@@ -3405,13 +3396,13 @@
         <v>107</v>
       </c>
       <c r="K92">
-        <v>0.1777493606138107</v>
+        <v>0.1619047619047619</v>
       </c>
       <c r="L92">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="M92">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3423,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>643</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="10:17">
@@ -3431,7 +3422,7 @@
         <v>108</v>
       </c>
       <c r="K93">
-        <v>0.1764705882352941</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="L93">
         <v>15</v>
@@ -3449,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94" spans="10:17">
@@ -3457,13 +3448,13 @@
         <v>109</v>
       </c>
       <c r="K94">
-        <v>0.1764705882352941</v>
+        <v>0.1595092024539877</v>
       </c>
       <c r="L94">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M94">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3475,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>70</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" spans="10:17">
@@ -3483,13 +3474,13 @@
         <v>110</v>
       </c>
       <c r="K95">
-        <v>0.174496644295302</v>
+        <v>0.1590296495956873</v>
       </c>
       <c r="L95">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="M95">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -3501,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>123</v>
+        <v>312</v>
       </c>
     </row>
     <row r="96" spans="10:17">
@@ -3509,13 +3500,13 @@
         <v>111</v>
       </c>
       <c r="K96">
-        <v>0.1717171717171717</v>
+        <v>0.1549815498154982</v>
       </c>
       <c r="L96">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M96">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3527,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>82</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="10:17">
@@ -3535,13 +3526,13 @@
         <v>112</v>
       </c>
       <c r="K97">
-        <v>0.1615384615384615</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="L97">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M97">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -3553,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>109</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98" spans="10:17">
@@ -3561,13 +3552,13 @@
         <v>113</v>
       </c>
       <c r="K98">
-        <v>0.1581920903954802</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="L98">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M98">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -3579,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>149</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99" spans="10:17">
@@ -3587,25 +3578,25 @@
         <v>114</v>
       </c>
       <c r="K99">
-        <v>0.1540540540540541</v>
+        <v>0.1412429378531073</v>
       </c>
       <c r="L99">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="M99">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="N99">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O99">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>313</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="10:17">
@@ -3613,13 +3604,13 @@
         <v>115</v>
       </c>
       <c r="K100">
-        <v>0.1476014760147601</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="L100">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="M100">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3631,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>231</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101" spans="10:17">
@@ -3639,13 +3630,13 @@
         <v>116</v>
       </c>
       <c r="K101">
-        <v>0.1475409836065574</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="L101">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M101">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -3657,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>104</v>
+        <v>175</v>
       </c>
     </row>
     <row r="102" spans="10:17">
@@ -3665,13 +3656,13 @@
         <v>117</v>
       </c>
       <c r="K102">
-        <v>0.147239263803681</v>
+        <v>0.1336515513126492</v>
       </c>
       <c r="L102">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="M102">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -3683,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>139</v>
+        <v>363</v>
       </c>
     </row>
     <row r="103" spans="10:17">
@@ -3691,13 +3682,13 @@
         <v>118</v>
       </c>
       <c r="K103">
-        <v>0.140893470790378</v>
+        <v>0.1271929824561404</v>
       </c>
       <c r="L103">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="M103">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -3709,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>250</v>
+        <v>398</v>
       </c>
     </row>
     <row r="104" spans="10:17">
@@ -3717,13 +3708,13 @@
         <v>119</v>
       </c>
       <c r="K104">
-        <v>0.1359649122807018</v>
+        <v>0.127147766323024</v>
       </c>
       <c r="L104">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="M104">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -3735,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>394</v>
+        <v>254</v>
       </c>
     </row>
     <row r="105" spans="10:17">
@@ -3743,13 +3734,13 @@
         <v>120</v>
       </c>
       <c r="K105">
-        <v>0.1333333333333333</v>
+        <v>0.1259259259259259</v>
       </c>
       <c r="L105">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="M105">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -3761,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>143</v>
+        <v>236</v>
       </c>
     </row>
     <row r="106" spans="10:17">
@@ -3769,13 +3760,13 @@
         <v>121</v>
       </c>
       <c r="K106">
-        <v>0.1312649164677804</v>
+        <v>0.124031007751938</v>
       </c>
       <c r="L106">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="M106">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -3787,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>364</v>
+        <v>113</v>
       </c>
     </row>
     <row r="107" spans="10:17">
@@ -3795,25 +3786,25 @@
         <v>122</v>
       </c>
       <c r="K107">
-        <v>0.1287128712871287</v>
+        <v>0.1227272727272727</v>
       </c>
       <c r="L107">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="M107">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="N107">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O107">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q107">
-        <v>176</v>
+        <v>386</v>
       </c>
     </row>
     <row r="108" spans="10:17">
@@ -3821,13 +3812,13 @@
         <v>123</v>
       </c>
       <c r="K108">
-        <v>0.1265206812652068</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L108">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="M108">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -3839,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>359</v>
+        <v>135</v>
       </c>
     </row>
     <row r="109" spans="10:17">
@@ -3847,13 +3838,13 @@
         <v>124</v>
       </c>
       <c r="K109">
-        <v>0.1185185185185185</v>
+        <v>0.1094890510948905</v>
       </c>
       <c r="L109">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M109">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -3865,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>238</v>
+        <v>366</v>
       </c>
     </row>
     <row r="110" spans="10:17">
@@ -3873,13 +3864,13 @@
         <v>125</v>
       </c>
       <c r="K110">
-        <v>0.1181818181818182</v>
+        <v>0.09696969696969697</v>
       </c>
       <c r="L110">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="M110">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -3891,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>388</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111" spans="10:17">
@@ -3899,13 +3890,13 @@
         <v>126</v>
       </c>
       <c r="K111">
-        <v>0.1145038167938931</v>
+        <v>0.09663865546218488</v>
       </c>
       <c r="L111">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M111">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -3917,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>116</v>
+        <v>215</v>
       </c>
     </row>
     <row r="112" spans="10:17">
@@ -3925,13 +3916,13 @@
         <v>127</v>
       </c>
       <c r="K112">
-        <v>0.1111111111111111</v>
+        <v>0.09375</v>
       </c>
       <c r="L112">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M112">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -3943,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113" spans="10:17">
@@ -3951,13 +3942,13 @@
         <v>128</v>
       </c>
       <c r="K113">
-        <v>0.108974358974359</v>
+        <v>0.09274193548387097</v>
       </c>
       <c r="L113">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M113">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -3969,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>139</v>
+        <v>225</v>
       </c>
     </row>
     <row r="114" spans="10:17">
@@ -3977,13 +3968,13 @@
         <v>129</v>
       </c>
       <c r="K114">
-        <v>0.1050420168067227</v>
+        <v>0.08455882352941177</v>
       </c>
       <c r="L114">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M114">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -3995,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>213</v>
+        <v>249</v>
       </c>
     </row>
     <row r="115" spans="10:17">
@@ -4003,13 +3994,13 @@
         <v>130</v>
       </c>
       <c r="K115">
-        <v>0.09134615384615384</v>
+        <v>0.08173076923076923</v>
       </c>
       <c r="L115">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M115">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N115">
         <v>1</v>
@@ -4021,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="116" spans="10:17">
@@ -4029,13 +4020,13 @@
         <v>131</v>
       </c>
       <c r="K116">
-        <v>0.0846774193548387</v>
+        <v>0.07369402985074627</v>
       </c>
       <c r="L116">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="M116">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="N116">
         <v>1</v>
@@ -4047,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>227</v>
+        <v>993</v>
       </c>
     </row>
     <row r="117" spans="10:17">
@@ -4055,13 +4046,13 @@
         <v>132</v>
       </c>
       <c r="K117">
-        <v>0.08034433285509325</v>
+        <v>0.07173601147776183</v>
       </c>
       <c r="L117">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M117">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="N117">
         <v>0.98</v>
@@ -4073,7 +4064,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>641</v>
+        <v>647</v>
       </c>
     </row>
     <row r="118" spans="10:17">
@@ -4081,13 +4072,13 @@
         <v>133</v>
       </c>
       <c r="K118">
-        <v>0.07923497267759563</v>
+        <v>0.06830601092896176</v>
       </c>
       <c r="L118">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M118">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N118">
         <v>1</v>
@@ -4099,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="119" spans="10:17">
@@ -4107,25 +4098,25 @@
         <v>134</v>
       </c>
       <c r="K119">
-        <v>0.07383177570093458</v>
+        <v>0.05597964376590331</v>
       </c>
       <c r="L119">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="M119">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="N119">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O119">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P119" t="b">
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>991</v>
+        <v>371</v>
       </c>
     </row>
     <row r="120" spans="10:17">
@@ -4133,25 +4124,25 @@
         <v>135</v>
       </c>
       <c r="K120">
-        <v>0.0625</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="L120">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M120">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N120">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O120">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q120">
-        <v>255</v>
+        <v>496</v>
       </c>
     </row>
     <row r="121" spans="10:17">
@@ -4159,7 +4150,7 @@
         <v>136</v>
       </c>
       <c r="K121">
-        <v>0.06091370558375635</v>
+        <v>0.04428044280442804</v>
       </c>
       <c r="L121">
         <v>24</v>
@@ -4177,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>370</v>
+        <v>518</v>
       </c>
     </row>
     <row r="122" spans="10:17">
@@ -4185,13 +4176,13 @@
         <v>137</v>
       </c>
       <c r="K122">
-        <v>0.05811138014527845</v>
+        <v>0.04329004329004329</v>
       </c>
       <c r="L122">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="M122">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="N122">
         <v>0.96</v>
@@ -4203,7 +4194,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>389</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="123" spans="10:17">
@@ -4211,25 +4202,25 @@
         <v>138</v>
       </c>
       <c r="K123">
-        <v>0.05369127516778523</v>
+        <v>0.04132231404958678</v>
       </c>
       <c r="L123">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M123">
         <v>17</v>
       </c>
       <c r="N123">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="O123">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="P123" t="b">
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>282</v>
+        <v>348</v>
       </c>
     </row>
     <row r="124" spans="10:17">
@@ -4237,25 +4228,25 @@
         <v>139</v>
       </c>
       <c r="K124">
-        <v>0.04805914972273567</v>
+        <v>0.0387409200968523</v>
       </c>
       <c r="L124">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M124">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="N124">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O124">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P124" t="b">
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>515</v>
+        <v>397</v>
       </c>
     </row>
     <row r="125" spans="10:17">
@@ -4263,103 +4254,25 @@
         <v>140</v>
       </c>
       <c r="K125">
-        <v>0.04419410745233969</v>
+        <v>0.02102496714848883</v>
       </c>
       <c r="L125">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="M125">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="N125">
-        <v>0.9399999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="O125">
-        <v>0.06000000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="P125" t="b">
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="126" spans="10:17">
-      <c r="J126" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K126">
-        <v>0.04395604395604396</v>
-      </c>
-      <c r="L126">
-        <v>16</v>
-      </c>
-      <c r="M126">
-        <v>17</v>
-      </c>
-      <c r="N126">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O126">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P126" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q126">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="127" spans="10:17">
-      <c r="J127" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K127">
-        <v>0.03838771593090211</v>
-      </c>
-      <c r="L127">
-        <v>20</v>
-      </c>
-      <c r="M127">
-        <v>21</v>
-      </c>
-      <c r="N127">
-        <v>0.95</v>
-      </c>
-      <c r="O127">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P127" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q127">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="128" spans="10:17">
-      <c r="J128" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K128">
-        <v>0.03145478374836173</v>
-      </c>
-      <c r="L128">
-        <v>24</v>
-      </c>
-      <c r="M128">
-        <v>28</v>
-      </c>
-      <c r="N128">
-        <v>0.86</v>
-      </c>
-      <c r="O128">
-        <v>0.14</v>
-      </c>
-      <c r="P128" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q128">
-        <v>739</v>
+        <v>745</v>
       </c>
     </row>
   </sheetData>
